--- a/surya_etal_front_virol_data_s1_sars_cov_2/sars_cov_2_results_bic_table.xlsx
+++ b/surya_etal_front_virol_data_s1_sars_cov_2/sars_cov_2_results_bic_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadik\Google Drive\Operation\IZANAMI\2_publication\surya_etal_virus_evol_data_s1_sars_cov_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadik\Google Drive\Operation\IZANAMI\publication\surya_etal_front_virol_data_s1_sars_cov_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99093866-B436-408E-93D9-FAC19DC9B146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F6DEA-21C5-4CBB-8E6B-6CCF39E4A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bic_table" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -133,8 +133,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
